--- a/Excel Data/CentralizedForiegnRemittance.xlsx
+++ b/Excel Data/CentralizedForiegnRemittance.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CFRNostroInputter" sheetId="1" r:id="rId1"/>
     <sheet name="CFRNostroAuth" sheetId="3" r:id="rId2"/>
     <sheet name="CFRVostroInputter" sheetId="2" r:id="rId3"/>
+    <sheet name="IBGCFRNostroInputter" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>Beneficiary</t>
   </si>
@@ -410,7 +411,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" activeCellId="1" sqref="J1 H12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -515,7 +516,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,4 +573,84 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1000075899</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>20230106</v>
+      </c>
+      <c r="E2">
+        <v>1007204404</v>
+      </c>
+      <c r="F2">
+        <v>62132350</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel Data/CentralizedForiegnRemittance.xlsx
+++ b/Excel Data/CentralizedForiegnRemittance.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CFRNostroInputter" sheetId="1" r:id="rId1"/>
     <sheet name="CFRNostroAuth" sheetId="3" r:id="rId2"/>
-    <sheet name="CFRVostroInputter" sheetId="2" r:id="rId3"/>
+    <sheet name="CFRVostroAuth" sheetId="4" r:id="rId3"/>
+    <sheet name="CFRVostroInputter" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Beneficiary</t>
   </si>
@@ -90,15 +91,32 @@
   </si>
   <si>
     <t>FT230060RW37LXJP</t>
+  </si>
+  <si>
+    <t>T.C (Azure)</t>
+  </si>
+  <si>
+    <t>T.C (Desc.)</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -113,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -121,12 +139,134 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" activeCellId="1" sqref="J1 H12"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,66 +559,81 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="K1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>1000075899</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>20230106</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>1007204404</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>62132350</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="3">
+        <v>119885</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -487,23 +642,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="B2" s="9">
+        <v>119887</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -512,10 +681,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="9">
+        <v>119888</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,51 +731,67 @@
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="I1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>20230106</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>1000033867</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>20230106</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="I2" s="3">
+        <v>119886</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel Data/CentralizedForiegnRemittance.xlsx
+++ b/Excel Data/CentralizedForiegnRemittance.xlsx
@@ -9,8 +9,8 @@
   <sheets>
     <sheet name="CFRNostroInputter" sheetId="1" r:id="rId1"/>
     <sheet name="CFRNostroAuth" sheetId="3" r:id="rId2"/>
-    <sheet name="CFRVostroAuth" sheetId="4" r:id="rId3"/>
-    <sheet name="CFRVostroInputter" sheetId="2" r:id="rId4"/>
+    <sheet name="CFRVostroInputter" sheetId="2" r:id="rId3"/>
+    <sheet name="CFRVostroAuth" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>Beneficiary</t>
   </si>
@@ -550,13 +550,24 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -611,7 +622,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4">
-        <v>20230106</v>
+        <v>20230619</v>
       </c>
       <c r="E2" s="4">
         <v>1007204404</v>
@@ -681,37 +692,92 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="K1" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="9">
-        <v>119888</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="11"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1000075899</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>20230619</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1000033867</v>
+      </c>
+      <c r="G2" s="4">
+        <v>20230619</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3">
+        <v>119886</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -720,78 +786,43 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="5" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4">
-        <v>20230106</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1000033867</v>
-      </c>
-      <c r="G2" s="4">
-        <v>20230106</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="3">
-        <v>119886</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="9">
+        <v>119888</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel Data/CentralizedForiegnRemittance.xlsx
+++ b/Excel Data/CentralizedForiegnRemittance.xlsx
@@ -550,7 +550,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,9 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -750,7 +748,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>1000075899</v>
+        <v>1006161186</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -765,7 +763,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="4">
-        <v>1000033867</v>
+        <v>1007204404</v>
       </c>
       <c r="G2" s="4">
         <v>20230619</v>

--- a/Excel Data/CentralizedForiegnRemittance.xlsx
+++ b/Excel Data/CentralizedForiegnRemittance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="CFRNostroInputter" sheetId="1" r:id="rId1"/>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Excel Data/CentralizedForiegnRemittance.xlsx
+++ b/Excel Data/CentralizedForiegnRemittance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CFRNostroInputter" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>Beneficiary</t>
   </si>
@@ -100,6 +100,93 @@
   </si>
   <si>
     <t>Error</t>
+  </si>
+  <si>
+    <t>TREASURY.RATE</t>
+  </si>
+  <si>
+    <t>CUST.RATE</t>
+  </si>
+  <si>
+    <t>BEN.ACCT.NO</t>
+  </si>
+  <si>
+    <t>ORDERING.CUST</t>
+  </si>
+  <si>
+    <t>COMMISSION.AMT:1</t>
+  </si>
+  <si>
+    <t>TIME.IND:1:1</t>
+  </si>
+  <si>
+    <t>SBP.RET.CODE</t>
+  </si>
+  <si>
+    <t>PAYMENT.DETAILS:1</t>
+  </si>
+  <si>
+    <t>A.REMARKS</t>
+  </si>
+  <si>
+    <t>REC.CORR.BANK:1</t>
+  </si>
+  <si>
+    <t>REC.CORR.BANK.ACC</t>
+  </si>
+  <si>
+    <t>INTERMED.BANK:1</t>
+  </si>
+  <si>
+    <t>INTERMED.BANK.ACC</t>
+  </si>
+  <si>
+    <t>ACCT.WITH.BANK.ACC</t>
+  </si>
+  <si>
+    <t>PYMT.NARRATION:1</t>
+  </si>
+  <si>
+    <t>DD.ADDRESS:1</t>
+  </si>
+  <si>
+    <t>PURP.REMITT:1</t>
+  </si>
+  <si>
+    <t>REL.BENEFICIARY</t>
+  </si>
+  <si>
+    <t>BK.TO.BK.INFO:1</t>
+  </si>
+  <si>
+    <t>ORDERING.CUST:1</t>
+  </si>
+  <si>
+    <t>COMMISSION.TYPE:1</t>
+  </si>
+  <si>
+    <t>PURPOSE:1</t>
+  </si>
+  <si>
+    <t>CX.USER.NAME</t>
+  </si>
+  <si>
+    <t>DD.ADDRESS</t>
+  </si>
+  <si>
+    <t>DD.CNIC.NO</t>
+  </si>
+  <si>
+    <t>CONTACT.NO</t>
+  </si>
+  <si>
+    <t>LINE.OF.BUSS.OC</t>
+  </si>
+  <si>
+    <t>PURP.REMITT</t>
+  </si>
+  <si>
+    <t>NAME.REMIT</t>
   </si>
 </sst>
 </file>
@@ -131,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -244,11 +331,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -267,6 +365,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U7" activeCellId="1" sqref="AD1:AF2 U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,17 +660,20 @@
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="20.7109375" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -587,31 +690,88 @@
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="O1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -627,24 +787,33 @@
       <c r="E2" s="4">
         <v>1007204404</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4">
         <v>62132350</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="3">
-        <v>119885</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="AD2" s="3">
+        <v>119885</v>
+      </c>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -692,9 +861,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AE7" sqref="AE7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -711,7 +882,7 @@
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -736,17 +907,62 @@
       <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1006161186</v>
       </c>
@@ -771,11 +987,11 @@
       <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="3">
+      <c r="X2" s="3">
         <v>119886</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
